--- a/StewartWilliamson_Homework2.xlsx
+++ b/StewartWilliamson_Homework2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stewby doobie doo\code\SavvyCoders\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE1FE83-B801-4FA4-A6DD-45ADFC303A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3B0D29-4EDB-4377-9B25-3C82EBE74D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9D04F5AF-F946-4A17-8605-C26B594AF78C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{9D04F5AF-F946-4A17-8605-C26B594AF78C}"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="33" r:id="rId5"/>
+    <pivotCache cacheId="30" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="183">
   <si>
     <t>Student Name</t>
   </si>
@@ -570,6 +570,30 @@
   </si>
   <si>
     <t>Feb</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1261,220 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{8CF8C103-2120-411D-BC80-D85F4C0BCD9B}"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -2256,7 +2493,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Homework section 2.xlsx]Payments!PivotTable10</c:name>
+    <c:name>[StewartWilliamson_Homework2.xlsx]Payments!PivotTable10</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -7374,7 +7611,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F1B5DA4-C8FD-46BD-9578-D40E2ACA2828}" name="PivotTable10" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F1B5DA4-C8FD-46BD-9578-D40E2ACA2828}" name="PivotTable10" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:E24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="14" showAll="0"/>
@@ -7635,7 +7872,7 @@
     <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="23">
-    <format dxfId="22">
+    <format dxfId="33">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="1">
@@ -7644,73 +7881,73 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="32">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="31">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="30">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="29">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="26">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="25">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="24">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="23">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="20">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="19">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="18">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="17">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="9" count="1">
@@ -7720,7 +7957,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="13">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="8" count="8">
@@ -7740,7 +7977,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="9" count="1">
@@ -7750,7 +7987,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="11">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="8" count="8">
@@ -7809,7 +8046,7 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight20" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleMedium20" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -7819,6 +8056,24 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1691871E-97D4-41FB-B1B6-E9D8D4BE2208}" name="Table1" displayName="Table1" ref="A1:I210" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="A1:I210" xr:uid="{1691871E-97D4-41FB-B1B6-E9D8D4BE2208}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{1393EED1-75FD-4EC3-A0F2-2AF538F95EBB}" name="Expenses" dataDxfId="10" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{B39C53C5-6F27-45D3-A866-FE1119F9DEEF}" name="Column1" dataDxfId="9" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{C42267A4-51C0-4560-9A00-924551C38C8A}" name="Column2" dataDxfId="8" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{DE2D2DB2-AAB6-49C6-B9AF-BF95AC2D760C}" name="Column3" dataDxfId="7" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" xr3:uid="{D77F4BA3-80FE-4CE1-A500-874F9895784C}" name="Column4" dataDxfId="6" dataCellStyle="Comma 2"/>
+    <tableColumn id="6" xr3:uid="{E7E1F657-A0E0-40C0-93EB-373F4DAF0DB9}" name="Column5" dataDxfId="5" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{31C4B727-29EA-4CCC-B2D1-25525B99AF6D}" name="Column6" dataDxfId="4" dataCellStyle="Normal 2"/>
+    <tableColumn id="8" xr3:uid="{A26FBE12-AD32-465A-AA0D-3E97FA52A564}" name="Column7" dataDxfId="3" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{93BD48D8-7087-4826-80E0-DB4586FF9F17}" name="Column8" dataDxfId="2" dataCellStyle="Normal 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8120,8 +8375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409B8A89-E6CC-42C1-9755-CFB42F0BC81B}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8453,8 +8708,8 @@
         <v>22</v>
       </c>
       <c r="B22" s="24">
-        <f>COUNTA($B$4:$B$14)</f>
-        <v>11</v>
+        <f>COUNT($B$4:$B$14)</f>
+        <v>0</v>
       </c>
       <c r="C22" s="12">
         <f>COUNT($C$4:$C$14)</f>
@@ -8680,17 +8935,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB57E299-36D9-454D-9C76-1DCECA83DDF9}">
   <dimension ref="A3:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -9025,24 +9276,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B719BE-E1FC-45D1-8125-74E93FF180BE}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I210"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L185" sqref="L185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="43" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="39" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="41" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="41" customWidth="1"/>
+    <col min="6" max="8" width="12" style="41" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" style="40" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="39"/>
   </cols>
@@ -9051,10 +9299,32 @@
       <c r="A1" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="I1" s="41"/>
-    </row>
-    <row r="2" spans="1:9" s="49" customFormat="1" ht="63" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="49" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>165</v>
       </c>
@@ -9083,7 +9353,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="48">
         <v>40588</v>
       </c>
@@ -9112,7 +9382,7 @@
         <v>40604</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="48">
         <v>40603</v>
       </c>
@@ -9141,7 +9411,7 @@
         <v>40633</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="48">
         <v>40604</v>
       </c>
@@ -9170,7 +9440,7 @@
         <v>40634</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="48">
         <v>40607</v>
       </c>
@@ -9199,7 +9469,7 @@
         <v>40607</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="48">
         <v>40617</v>
       </c>
@@ -9257,7 +9527,7 @@
         <v>40617</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="48">
         <v>40617</v>
       </c>
@@ -9286,7 +9556,7 @@
         <v>40635</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="48">
         <v>40617</v>
       </c>
@@ -9315,7 +9585,7 @@
         <v>40617</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="48">
         <v>40620</v>
       </c>
@@ -9373,7 +9643,7 @@
         <v>40622</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="48">
         <v>40622</v>
       </c>
@@ -9431,7 +9701,7 @@
         <v>40628</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="48">
         <v>40628</v>
       </c>
@@ -9460,7 +9730,7 @@
         <v>40628</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="48">
         <v>40628</v>
       </c>
@@ -9489,7 +9759,7 @@
         <v>40628</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="48">
         <v>40628</v>
       </c>
@@ -9518,7 +9788,7 @@
         <v>40628</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="48">
         <v>40633</v>
       </c>
@@ -9547,7 +9817,7 @@
         <v>40633</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="48">
         <v>40633</v>
       </c>
@@ -9576,7 +9846,7 @@
         <v>40633</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="48">
         <v>40634</v>
       </c>
@@ -9605,7 +9875,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="48">
         <v>40638</v>
       </c>
@@ -9634,7 +9904,7 @@
         <v>40638</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="48">
         <v>40645</v>
       </c>
@@ -9663,7 +9933,7 @@
         <v>40645</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="48">
         <v>40648</v>
       </c>
@@ -9721,7 +9991,7 @@
         <v>40648</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="48">
         <v>40648</v>
       </c>
@@ -9779,7 +10049,7 @@
         <v>40653</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="48">
         <v>40653</v>
       </c>
@@ -9808,7 +10078,7 @@
         <v>40653</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="48">
         <v>40658</v>
       </c>
@@ -9866,7 +10136,7 @@
         <v>40659</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="48">
         <v>40659</v>
       </c>
@@ -9895,7 +10165,7 @@
         <v>40689</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="48">
         <v>40659</v>
       </c>
@@ -9924,7 +10194,7 @@
         <v>40659</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="48">
         <v>40659</v>
       </c>
@@ -9953,7 +10223,7 @@
         <v>40659</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="48">
         <v>40659</v>
       </c>
@@ -9982,7 +10252,7 @@
         <v>40659</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="48">
         <v>40662</v>
       </c>
@@ -10011,7 +10281,7 @@
         <v>40692</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="48">
         <v>40663</v>
       </c>
@@ -10040,7 +10310,7 @@
         <v>40663</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="48">
         <v>40663</v>
       </c>
@@ -10069,7 +10339,7 @@
         <v>40663</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="48">
         <v>40664</v>
       </c>
@@ -10098,7 +10368,7 @@
         <v>40694</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="48">
         <v>40664</v>
       </c>
@@ -10127,7 +10397,7 @@
         <v>40694</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="48">
         <v>40668</v>
       </c>
@@ -10156,7 +10426,7 @@
         <v>40668</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="48">
         <v>40670</v>
       </c>
@@ -10185,7 +10455,7 @@
         <v>40670</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="48">
         <v>40670</v>
       </c>
@@ -10214,7 +10484,7 @@
         <v>40700</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="48">
         <v>40678</v>
       </c>
@@ -10272,7 +10542,7 @@
         <v>40678</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="48">
         <v>40678</v>
       </c>
@@ -10330,7 +10600,7 @@
         <v>40683</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="48">
         <v>40683</v>
       </c>
@@ -10388,7 +10658,7 @@
         <v>40689</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="48">
         <v>40689</v>
       </c>
@@ -10417,7 +10687,7 @@
         <v>40689</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="48">
         <v>40689</v>
       </c>
@@ -10446,7 +10716,7 @@
         <v>40689</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="48">
         <v>40689</v>
       </c>
@@ -10475,7 +10745,7 @@
         <v>40689</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="48">
         <v>40692</v>
       </c>
@@ -10504,7 +10774,7 @@
         <v>40692</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="48">
         <v>40694</v>
       </c>
@@ -10533,7 +10803,7 @@
         <v>40694</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="48">
         <v>40694</v>
       </c>
@@ -10562,7 +10832,7 @@
         <v>40694</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="48">
         <v>40695</v>
       </c>
@@ -10591,7 +10861,7 @@
         <v>40725</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="48">
         <v>40699</v>
       </c>
@@ -10620,7 +10890,7 @@
         <v>40699</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="48">
         <v>40709</v>
       </c>
@@ -10678,7 +10948,7 @@
         <v>40709</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="48">
         <v>40709</v>
       </c>
@@ -10736,7 +11006,7 @@
         <v>40714</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="48">
         <v>40714</v>
       </c>
@@ -10765,7 +11035,7 @@
         <v>40714</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="48">
         <v>40716</v>
       </c>
@@ -10794,7 +11064,7 @@
         <v>40716</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="48">
         <v>40719</v>
       </c>
@@ -10852,7 +11122,7 @@
         <v>40720</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="48">
         <v>40720</v>
       </c>
@@ -10881,7 +11151,7 @@
         <v>40720</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="48">
         <v>40720</v>
       </c>
@@ -10910,7 +11180,7 @@
         <v>40720</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="48">
         <v>40720</v>
       </c>
@@ -10939,7 +11209,7 @@
         <v>40720</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="48">
         <v>40720</v>
       </c>
@@ -10968,7 +11238,7 @@
         <v>40720</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="48">
         <v>40724</v>
       </c>
@@ -10997,7 +11267,7 @@
         <v>40724</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="48">
         <v>40724</v>
       </c>
@@ -11026,7 +11296,7 @@
         <v>40724</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="48">
         <v>40725</v>
       </c>
@@ -11055,7 +11325,7 @@
         <v>40755</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="48">
         <v>40726</v>
       </c>
@@ -11084,7 +11354,7 @@
         <v>40756</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="48">
         <v>40729</v>
       </c>
@@ -11113,7 +11383,7 @@
         <v>40729</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="48">
         <v>40739</v>
       </c>
@@ -11171,7 +11441,7 @@
         <v>40739</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="48">
         <v>40739</v>
       </c>
@@ -11200,7 +11470,7 @@
         <v>40757</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="48">
         <v>40740</v>
       </c>
@@ -11229,7 +11499,7 @@
         <v>40740</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="48">
         <v>40741</v>
       </c>
@@ -11287,7 +11557,7 @@
         <v>40744</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="48">
         <v>40744</v>
       </c>
@@ -11316,7 +11586,7 @@
         <v>40744</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="48">
         <v>40749</v>
       </c>
@@ -11374,7 +11644,7 @@
         <v>40750</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="48">
         <v>40750</v>
       </c>
@@ -11403,7 +11673,7 @@
         <v>40750</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="48">
         <v>40750</v>
       </c>
@@ -11432,7 +11702,7 @@
         <v>40750</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="48">
         <v>40750</v>
       </c>
@@ -11461,7 +11731,7 @@
         <v>40750</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="48">
         <v>40755</v>
       </c>
@@ -11490,7 +11760,7 @@
         <v>40755</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="48">
         <v>40755</v>
       </c>
@@ -11519,7 +11789,7 @@
         <v>40755</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="48">
         <v>40756</v>
       </c>
@@ -11548,7 +11818,7 @@
         <v>40786</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="48">
         <v>40760</v>
       </c>
@@ -11577,7 +11847,7 @@
         <v>40760</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="48">
         <v>40764</v>
       </c>
@@ -11606,7 +11876,7 @@
         <v>40764</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="48">
         <v>40768</v>
       </c>
@@ -11635,7 +11905,7 @@
         <v>40798</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="48">
         <v>40770</v>
       </c>
@@ -11693,7 +11963,7 @@
         <v>40770</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="48">
         <v>40770</v>
       </c>
@@ -11722,7 +11992,7 @@
         <v>40788</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="48">
         <v>40770</v>
       </c>
@@ -11780,7 +12050,7 @@
         <v>40775</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="48">
         <v>40775</v>
       </c>
@@ -11809,7 +12079,7 @@
         <v>40775</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="48">
         <v>40776</v>
       </c>
@@ -11838,7 +12108,7 @@
         <v>40776</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="48">
         <v>40780</v>
       </c>
@@ -11896,7 +12166,7 @@
         <v>40781</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="48">
         <v>40781</v>
       </c>
@@ -11925,7 +12195,7 @@
         <v>40781</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="48">
         <v>40781</v>
       </c>
@@ -11954,7 +12224,7 @@
         <v>40781</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="48">
         <v>40781</v>
       </c>
@@ -11983,7 +12253,7 @@
         <v>40781</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="48">
         <v>40782</v>
       </c>
@@ -12012,7 +12282,7 @@
         <v>40812</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="48">
         <v>40786</v>
       </c>
@@ -12041,7 +12311,7 @@
         <v>40786</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="48">
         <v>40786</v>
       </c>
@@ -12070,7 +12340,7 @@
         <v>40786</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="48">
         <v>40786</v>
       </c>
@@ -12099,7 +12369,7 @@
         <v>40786</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="48">
         <v>40787</v>
       </c>
@@ -12128,7 +12398,7 @@
         <v>40817</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="48">
         <v>40791</v>
       </c>
@@ -12157,7 +12427,7 @@
         <v>40791</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="48">
         <v>40799</v>
       </c>
@@ -12186,7 +12456,7 @@
         <v>40829</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="48">
         <v>40801</v>
       </c>
@@ -12244,7 +12514,7 @@
         <v>40801</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="48">
         <v>40801</v>
       </c>
@@ -12273,7 +12543,7 @@
         <v>40819</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="48">
         <v>40804</v>
       </c>
@@ -12302,7 +12572,7 @@
         <v>40804</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="48">
         <v>40804</v>
       </c>
@@ -12360,7 +12630,7 @@
         <v>40806</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="48">
         <v>40806</v>
       </c>
@@ -12389,7 +12659,7 @@
         <v>40806</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="48">
         <v>40807</v>
       </c>
@@ -12418,7 +12688,7 @@
         <v>40807</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="48">
         <v>40810</v>
       </c>
@@ -12476,7 +12746,7 @@
         <v>40812</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="48">
         <v>40812</v>
       </c>
@@ -12505,7 +12775,7 @@
         <v>40812</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="48">
         <v>40812</v>
       </c>
@@ -12534,7 +12804,7 @@
         <v>40812</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="48">
         <v>40812</v>
       </c>
@@ -12563,7 +12833,7 @@
         <v>40812</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="48">
         <v>40816</v>
       </c>
@@ -12592,7 +12862,7 @@
         <v>40816</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="48">
         <v>40816</v>
       </c>
@@ -12621,7 +12891,7 @@
         <v>40816</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="48">
         <v>40817</v>
       </c>
@@ -12650,7 +12920,7 @@
         <v>40847</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="48">
         <v>40820</v>
       </c>
@@ -12679,7 +12949,7 @@
         <v>40850</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="48">
         <v>40820</v>
       </c>
@@ -12708,7 +12978,7 @@
         <v>40820</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="48">
         <v>40821</v>
       </c>
@@ -12737,7 +13007,7 @@
         <v>40821</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="48">
         <v>40831</v>
       </c>
@@ -12795,7 +13065,7 @@
         <v>40831</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="48">
         <v>40831</v>
       </c>
@@ -12853,7 +13123,7 @@
         <v>40836</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="48">
         <v>40836</v>
       </c>
@@ -12882,7 +13152,7 @@
         <v>40836</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="48">
         <v>40838</v>
       </c>
@@ -12911,7 +13181,7 @@
         <v>40868</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="48">
         <v>40841</v>
       </c>
@@ -12969,7 +13239,7 @@
         <v>40842</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="48">
         <v>40842</v>
       </c>
@@ -12998,7 +13268,7 @@
         <v>40842</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="48">
         <v>40842</v>
       </c>
@@ -13027,7 +13297,7 @@
         <v>40842</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="48">
         <v>40842</v>
       </c>
@@ -13056,7 +13326,7 @@
         <v>40842</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="48">
         <v>40844</v>
       </c>
@@ -13085,7 +13355,7 @@
         <v>40844</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="48">
         <v>40847</v>
       </c>
@@ -13114,7 +13384,7 @@
         <v>40847</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="48">
         <v>40847</v>
       </c>
@@ -13143,7 +13413,7 @@
         <v>40847</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="48">
         <v>40848</v>
       </c>
@@ -13172,7 +13442,7 @@
         <v>40878</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="48">
         <v>40852</v>
       </c>
@@ -13201,7 +13471,7 @@
         <v>40852</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="48">
         <v>40852</v>
       </c>
@@ -13230,7 +13500,7 @@
         <v>40882</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="48">
         <v>40862</v>
       </c>
@@ -13288,7 +13558,7 @@
         <v>40862</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="48">
         <v>40862</v>
       </c>
@@ -13317,7 +13587,7 @@
         <v>40880</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="48">
         <v>40866</v>
       </c>
@@ -13375,7 +13645,7 @@
         <v>40867</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="48">
         <v>40867</v>
       </c>
@@ -13433,7 +13703,7 @@
         <v>40873</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="48">
         <v>40873</v>
       </c>
@@ -13462,7 +13732,7 @@
         <v>40873</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="48">
         <v>40873</v>
       </c>
@@ -13491,7 +13761,7 @@
         <v>40873</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="48">
         <v>40873</v>
       </c>
@@ -13520,7 +13790,7 @@
         <v>40873</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="48">
         <v>40877</v>
       </c>
@@ -13549,7 +13819,7 @@
         <v>40877</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="48">
         <v>40877</v>
       </c>
@@ -13578,7 +13848,7 @@
         <v>40877</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="48">
         <v>40878</v>
       </c>
@@ -13607,7 +13877,7 @@
         <v>40908</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="48">
         <v>40882</v>
       </c>
@@ -13636,7 +13906,7 @@
         <v>40882</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="48">
         <v>40883</v>
       </c>
@@ -13665,7 +13935,7 @@
         <v>40883</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="48">
         <v>40892</v>
       </c>
@@ -13723,7 +13993,7 @@
         <v>40892</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="48">
         <v>40892</v>
       </c>
@@ -13752,7 +14022,7 @@
         <v>40910</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="48">
         <v>40894</v>
       </c>
@@ -13781,7 +14051,7 @@
         <v>40924</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="48">
         <v>40894</v>
       </c>
@@ -13810,7 +14080,7 @@
         <v>40924</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="48">
         <v>40894</v>
       </c>
@@ -13868,7 +14138,7 @@
         <v>40897</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="48">
         <v>40897</v>
       </c>
@@ -13897,7 +14167,7 @@
         <v>40897</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="48">
         <v>40899</v>
       </c>
@@ -13926,7 +14196,7 @@
         <v>40929</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="48">
         <v>40902</v>
       </c>
@@ -13984,7 +14254,7 @@
         <v>40903</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="48">
         <v>40903</v>
       </c>
@@ -14013,7 +14283,7 @@
         <v>40903</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="48">
         <v>40903</v>
       </c>
@@ -14042,7 +14312,7 @@
         <v>40903</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="48">
         <v>40903</v>
       </c>
@@ -14071,7 +14341,7 @@
         <v>40903</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="48">
         <v>40908</v>
       </c>
@@ -14100,7 +14370,7 @@
         <v>40908</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="48">
         <v>40908</v>
       </c>
@@ -14129,7 +14399,7 @@
         <v>40908</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="48">
         <v>40909</v>
       </c>
@@ -14158,7 +14428,7 @@
         <v>40939</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="48">
         <v>40913</v>
       </c>
@@ -14187,7 +14457,7 @@
         <v>40913</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="48">
         <v>40923</v>
       </c>
@@ -14245,7 +14515,7 @@
         <v>40923</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="48">
         <v>40923</v>
       </c>
@@ -14274,7 +14544,7 @@
         <v>40941</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="48">
         <v>40924</v>
       </c>
@@ -14332,7 +14602,7 @@
         <v>40928</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="48">
         <v>40928</v>
       </c>
@@ -14390,7 +14660,7 @@
         <v>40934</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="48">
         <v>40934</v>
       </c>
@@ -14419,7 +14689,7 @@
         <v>40934</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="48">
         <v>40934</v>
       </c>
@@ -14448,7 +14718,7 @@
         <v>40934</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="48">
         <v>40934</v>
       </c>
@@ -14477,7 +14747,7 @@
         <v>40934</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="48">
         <v>40934</v>
       </c>
@@ -14506,7 +14776,7 @@
         <v>40939</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="48">
         <v>40936</v>
       </c>
@@ -14535,7 +14805,7 @@
         <v>40966</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="48">
         <v>40939</v>
       </c>
@@ -14564,7 +14834,7 @@
         <v>40939</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="48">
         <v>40939</v>
       </c>
@@ -14593,7 +14863,7 @@
         <v>40939</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="48">
         <v>40940</v>
       </c>
@@ -14620,7 +14890,7 @@
       </c>
       <c r="I193" s="44"/>
     </row>
-    <row r="194" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="48">
         <v>40944</v>
       </c>
@@ -14649,7 +14919,7 @@
         <v>40944</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="48">
         <v>40950</v>
       </c>
@@ -14676,7 +14946,7 @@
       </c>
       <c r="I195" s="44"/>
     </row>
-    <row r="196" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="48">
         <v>40954</v>
       </c>
@@ -14734,7 +15004,7 @@
         <v>40954</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="48">
         <v>40954</v>
       </c>
@@ -14790,7 +15060,7 @@
         <v>40959</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="48">
         <v>40959</v>
       </c>
@@ -14819,7 +15089,7 @@
         <v>40959</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="48">
         <v>40964</v>
       </c>
@@ -14848,7 +15118,7 @@
         <v>40964</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="48">
         <v>40964</v>
       </c>
@@ -14877,7 +15147,7 @@
         <v>40964</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="48">
         <v>40965</v>
       </c>
@@ -14933,7 +15203,7 @@
         <v>40965</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="48">
         <v>40965</v>
       </c>
@@ -14962,7 +15232,7 @@
         <v>40965</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="48">
         <v>40965</v>
       </c>
@@ -14991,7 +15261,7 @@
         <v>40965</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="48">
         <v>40965</v>
       </c>
@@ -15020,7 +15290,7 @@
         <v>40965</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="48">
         <v>40968</v>
       </c>
@@ -15049,7 +15319,7 @@
         <v>40968</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="48">
         <v>40968</v>
       </c>
@@ -15078,7 +15348,7 @@
         <v>40968</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="48">
         <v>40968</v>
       </c>
@@ -15108,13 +15378,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G210" xr:uid="{09B719BE-E1FC-45D1-8125-74E93FF180BE}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="B2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>